--- a/Spatial_data/UVic/Harrop-Archibald 2008/Blowdown zone/Blowdown zone Metadata.xlsx
+++ b/Spatial_data/UVic/Harrop-Archibald 2008/Blowdown zone/Blowdown zone Metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnk\Documents\GitHub\Github Shackelford-lab\Shackelford-lab\Spatial_data\UVic\Harrop-Archibald 2008\Blowdown zone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779DB88A-FB7F-4BE9-9783-5E6F17FAD523}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0509C5E3-2E28-46C0-83C2-51B06991CF31}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2955" yWindow="1995" windowWidth="17400" windowHeight="10785" xr2:uid="{6934027C-8984-4F11-9C55-B9A1F75C2751}"/>
+    <workbookView xWindow="4245" yWindow="3240" windowWidth="14610" windowHeight="11565" xr2:uid="{6934027C-8984-4F11-9C55-B9A1F75C2751}"/>
   </bookViews>
   <sheets>
     <sheet name="Blowdown Area metadata" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>Data table metadata</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>String</t>
-  </si>
-  <si>
-    <t>Unknown</t>
   </si>
   <si>
     <t>File name(s)</t>
@@ -120,6 +117,96 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">South Woods.  </t>
+    </r>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Year the data was recorded.</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Values:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+yyyy. E.g. 2008. 
+NULL = neither the original meta-data nor accompanying report provided the year of creation. </t>
+    </r>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Month the data was recorded.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Values:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+1-12. E.g. 2=February.
+NULL = neither the original meta-data nor accompanying report provided the month of creation. </t>
+    </r>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Day the data was recorded.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Values:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+1-31. E.g. 15=the 15th day of a month. 
+NULL = neither the original meta-data nor accompanying report provided the day of creation.</t>
     </r>
   </si>
 </sst>
@@ -557,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC2632A-81E2-4372-B21A-08C497B1BE35}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,10 +667,10 @@
     </row>
     <row r="2" spans="1:6" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -593,8 +680,8 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>18</v>
+      <c r="B3" s="4">
+        <v>2007</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -605,7 +692,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -664,7 +751,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
@@ -687,32 +774,62 @@
         <v>17</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10"/>
+    </row>
+    <row r="11" spans="1:6" s="11" customFormat="1" ht="72.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F10"/>
-    </row>
-    <row r="11" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
+      <c r="B11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
+    <row r="12" spans="1:6" s="11" customFormat="1" ht="72.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
+    <row r="13" spans="1:6" s="11" customFormat="1" ht="84.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="F13"/>
     </row>
     <row r="14" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
